--- a/Others/기획서/시스템 기획서_0727.xlsx
+++ b/Others/기획서/시스템 기획서_0727.xlsx
@@ -15,7 +15,6 @@
     <sheet name="애니메이션" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -475,9 +474,6 @@
     <t>1차 데미지 : 공격력 * 3</t>
   </si>
   <si>
-    <t>표식이 남은 적에게 순간이동하며 오오라 안의 적에게 기절을 입히고 데미지를 준다.</t>
-  </si>
-  <si>
     <t>2차 데미지 : 공격력 * 5/ 기절 : 0.5초</t>
   </si>
   <si>
@@ -575,9 +571,6 @@
   </si>
   <si>
     <t>경비원</t>
-  </si>
-  <si>
-    <t>플레이어를 느려지게 만드는 끈끈이 총알을 발사한다</t>
   </si>
   <si>
     <t>경비터렛(총)</t>
@@ -897,6 +890,14 @@
   </si>
   <si>
     <t>공격력*3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>표식이 남은 적에게 순간이동하며 오오라 안의 적에게 기절을 입히고 데미지를 준다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 느려지게 만드는 끈끈이 총알을 발사한다.(끈끈이 안에 있으면 30% 느려진다.)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1047,21 +1048,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1100,6 +1086,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1484,23 +1485,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1524,23 +1525,23 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -1553,7 +1554,7 @@
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -1571,7 +1572,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
@@ -1579,7 +1580,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
@@ -1587,7 +1588,7 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -1605,7 +1606,7 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
@@ -1613,7 +1614,7 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
@@ -1621,23 +1622,23 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
@@ -1645,7 +1646,7 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
@@ -1668,23 +1669,23 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C39" t="s">
@@ -1712,7 +1713,7 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C44" t="s">
@@ -1745,7 +1746,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C50" t="s">
@@ -1778,7 +1779,7 @@
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C56" t="s">
@@ -1824,7 +1825,7 @@
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1834,23 +1835,23 @@
       </c>
     </row>
     <row r="73" spans="2:13">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
     </row>
     <row r="75" spans="2:13">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C75" t="s">
@@ -1858,7 +1859,7 @@
       </c>
     </row>
     <row r="76" spans="2:13">
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C76" t="s">
@@ -1886,7 +1887,7 @@
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C81" t="s">
@@ -1914,7 +1915,7 @@
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1959,7 +1960,7 @@
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C95" t="s">
@@ -1972,32 +1973,32 @@
       </c>
     </row>
     <row r="97" spans="2:3">
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="99" spans="2:3">
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="102" spans="2:3">
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2017,7 +2018,7 @@
       </c>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C106" t="s">
@@ -2030,7 +2031,7 @@
       </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2045,7 +2046,7 @@
       </c>
     </row>
     <row r="111" spans="2:3">
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2063,20 +2064,20 @@
       </c>
     </row>
     <row r="122" spans="2:13">
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2097,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2115,22 +2116,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
@@ -2142,15 +2143,15 @@
       <c r="D2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="N2" t="s">
         <v>109</v>
       </c>
@@ -2165,18 +2166,18 @@
       <c r="D3" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="Q3" s="13"/>
+      <c r="E3" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4">
@@ -2188,18 +2189,18 @@
       <c r="D4" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="Q4" s="13"/>
+      <c r="E4" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5">
@@ -2211,18 +2212,18 @@
       <c r="D5" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="Q5" s="13"/>
+      <c r="E5" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="2:17">
       <c r="B6">
@@ -2234,17 +2235,17 @@
       <c r="D6" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="E6" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
       <c r="N6" t="s">
         <v>116</v>
       </c>
@@ -2253,45 +2254,45 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="E7" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:17">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="E8" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
       <c r="N8" t="s">
         <v>119</v>
       </c>
@@ -2306,17 +2307,17 @@
       <c r="D9" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10">
@@ -2328,33 +2329,33 @@
       <c r="D10" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
       <c r="N10" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2366,209 +2367,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="10"/>
-    <col min="2" max="2" width="19.625" style="10"/>
-    <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="99.5" style="10"/>
-    <col min="5" max="5" width="48" style="10"/>
-    <col min="6" max="6" width="29.125" style="10"/>
-    <col min="7" max="14" width="9" style="10"/>
+    <col min="1" max="1" width="3.375" style="5"/>
+    <col min="2" max="2" width="19.625" style="5"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="99.5" style="5"/>
+    <col min="5" max="5" width="48" style="5"/>
+    <col min="6" max="6" width="29.125" style="5"/>
+    <col min="7" max="14" width="9" style="5"/>
     <col min="15" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9"/>
       <c r="C9"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="F10"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="F12" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="10" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2585,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:R12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2609,48 +2610,48 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>161</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="15" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="2:18">
-      <c r="B2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -2661,16 +2662,16 @@
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>166</v>
+      <c r="H3" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -2682,15 +2683,15 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
         <v>169</v>
-      </c>
-      <c r="C5" t="s">
-        <v>170</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -2702,12 +2703,12 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -2715,62 +2716,62 @@
       <c r="D6">
         <v>500</v>
       </c>
-      <c r="E6" s="16">
-        <v>3</v>
+      <c r="E6" s="11">
+        <v>10</v>
       </c>
       <c r="F6">
         <v>500</v>
       </c>
       <c r="G6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" t="s">
         <v>173</v>
-      </c>
-      <c r="H6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" t="s">
         <v>175</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>176</v>
-      </c>
-      <c r="H7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:18">
       <c r="H8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="15" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="10" t="s">
-        <v>180</v>
-      </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13">
         <v>60</v>
@@ -2782,15 +2783,15 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14">
         <v>120</v>
@@ -2802,15 +2803,15 @@
         <v>50</v>
       </c>
       <c r="H14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="10" t="s">
-        <v>184</v>
-      </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15">
         <v>80</v>
@@ -2822,18 +2823,18 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="10" t="s">
-        <v>186</v>
+      <c r="B16" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -2842,12 +2843,12 @@
         <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -2862,380 +2863,380 @@
         <v>2000</v>
       </c>
       <c r="G17" t="s">
-        <v>286</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="2:18">
       <c r="G18" t="s">
-        <v>283</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>189</v>
+        <v>281</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:18">
       <c r="G19" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>190</v>
+        <v>283</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:18">
       <c r="H20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="10" t="s">
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="10" t="s">
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C25" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" s="10" t="s">
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="10" t="s">
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" t="s">
         <v>195</v>
       </c>
-      <c r="C26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="10" t="s">
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C27" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="10" t="s">
+    <row r="29" spans="2:18">
+      <c r="B29" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C28" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18">
-      <c r="B29" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="C29" t="s">
         <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="10" t="s">
-        <v>202</v>
+      <c r="B30" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>203</v>
+      <c r="H30" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="2:18">
       <c r="C31" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="H32" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="H33" s="5" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18">
-      <c r="H32" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18">
-      <c r="H33" s="10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="34" spans="2:18">
       <c r="H34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="2:18">
       <c r="H35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>210</v>
+      <c r="H36" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="2:18">
       <c r="H37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="2:18">
       <c r="H38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="B42" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="41" spans="2:18">
-      <c r="B41" s="5" t="s">
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="B43" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="2:18">
-      <c r="B42" s="10" t="s">
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" t="s">
         <v>214</v>
-      </c>
-      <c r="C42" t="s">
-        <v>165</v>
-      </c>
-      <c r="H42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18">
-      <c r="B43" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" t="s">
-        <v>165</v>
-      </c>
-      <c r="H43" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="44" spans="2:18">
       <c r="B44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="2:18">
       <c r="B45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="2:18">
       <c r="B46" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18">
+      <c r="B47" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="H47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="B48" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" t="s">
         <v>170</v>
       </c>
-      <c r="H46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18">
-      <c r="B47" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" t="s">
-        <v>165</v>
-      </c>
-      <c r="H47" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18">
-      <c r="B48" s="10" t="s">
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C48" t="s">
-        <v>170</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="C51" t="s">
+        <v>169</v>
+      </c>
+      <c r="H51" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" t="s">
-        <v>170</v>
-      </c>
-      <c r="H49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C50" t="s">
-        <v>170</v>
-      </c>
-      <c r="H50" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="10" t="s">
+    <row r="52" spans="2:8">
+      <c r="B52" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="C51" t="s">
-        <v>170</v>
-      </c>
-      <c r="H51" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="C52" t="s">
         <v>123</v>
       </c>
       <c r="H52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="C54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="H55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="H56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="H59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="H60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="H61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="H62" s="10" t="s">
-        <v>239</v>
+      <c r="H62" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3269,19 +3270,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3297,7 +3298,7 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="10">
         <f t="shared" ref="E2:E31" si="0">IF(D2="","",SUM(E1,D2))</f>
         <v>0</v>
       </c>
@@ -3315,7 +3316,7 @@
       <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3336,7 +3337,7 @@
         <f t="shared" ref="D4:D11" si="3">D3+(D3-D2)+20</f>
         <v>60</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -3357,7 +3358,7 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -3378,7 +3379,7 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
@@ -3399,7 +3400,7 @@
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
@@ -3420,7 +3421,7 @@
         <f t="shared" si="3"/>
         <v>420</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>1120</v>
       </c>
@@ -3441,7 +3442,7 @@
         <f t="shared" si="3"/>
         <v>560</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>1680</v>
       </c>
@@ -3462,7 +3463,7 @@
         <f t="shared" si="3"/>
         <v>720</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
@@ -3483,7 +3484,7 @@
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>3300</v>
       </c>
@@ -3504,7 +3505,7 @@
         <f t="shared" ref="D12:D20" si="6">D11+(D11-D10)+40</f>
         <v>1120</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>4420</v>
       </c>
@@ -3525,7 +3526,7 @@
         <f t="shared" si="6"/>
         <v>1380</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
@@ -3546,7 +3547,7 @@
         <f t="shared" si="6"/>
         <v>1680</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>7480</v>
       </c>
@@ -3567,7 +3568,7 @@
         <f t="shared" si="6"/>
         <v>2020</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
@@ -3588,7 +3589,7 @@
         <f t="shared" si="6"/>
         <v>2400</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>11900</v>
       </c>
@@ -3609,7 +3610,7 @@
         <f t="shared" si="6"/>
         <v>2820</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>14720</v>
       </c>
@@ -3630,7 +3631,7 @@
         <f t="shared" si="6"/>
         <v>3280</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
@@ -3651,7 +3652,7 @@
         <f t="shared" si="6"/>
         <v>3780</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>21780</v>
       </c>
@@ -3672,7 +3673,7 @@
         <f t="shared" si="6"/>
         <v>4320</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>26100</v>
       </c>
@@ -3693,7 +3694,7 @@
         <f t="shared" ref="D21:D31" si="8">D20+(D20-D19)+60</f>
         <v>4920</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>31020</v>
       </c>
@@ -3714,7 +3715,7 @@
         <f t="shared" si="8"/>
         <v>5580</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>36600</v>
       </c>
@@ -3735,7 +3736,7 @@
         <f t="shared" si="8"/>
         <v>6300</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>42900</v>
       </c>
@@ -3756,7 +3757,7 @@
         <f t="shared" si="8"/>
         <v>7080</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>49980</v>
       </c>
@@ -3777,7 +3778,7 @@
         <f t="shared" si="8"/>
         <v>7920</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>57900</v>
       </c>
@@ -3798,7 +3799,7 @@
         <f t="shared" si="8"/>
         <v>8820</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>66720</v>
       </c>
@@ -3819,7 +3820,7 @@
         <f t="shared" si="8"/>
         <v>9780</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>76500</v>
       </c>
@@ -3840,7 +3841,7 @@
         <f t="shared" si="8"/>
         <v>10800</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="10">
         <f t="shared" si="0"/>
         <v>87300</v>
       </c>
@@ -3861,7 +3862,7 @@
         <f t="shared" si="8"/>
         <v>11880</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="10">
         <f t="shared" si="0"/>
         <v>99180</v>
       </c>
@@ -3882,7 +3883,7 @@
         <f t="shared" si="8"/>
         <v>13020</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>112200</v>
       </c>
@@ -3903,7 +3904,7 @@
         <f t="shared" si="8"/>
         <v>14220</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="10">
         <f t="shared" si="0"/>
         <v>126420</v>
       </c>
@@ -3941,224 +3942,224 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" t="s">
         <v>246</v>
-      </c>
-      <c r="C6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" t="s">
         <v>249</v>
-      </c>
-      <c r="C7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="2:9">
+      <c r="B19" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C19" s="5" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="C21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="C22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="C23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" t="s">
         <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" t="s">
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" t="s">
-        <v>269</v>
-      </c>
-    </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>262</v>
+      <c r="B35" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="C37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="C38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
